--- a/parabolic/2025/08/05/parabolic.xlsx
+++ b/parabolic/2025/08/05/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2385</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="D2" t="n">
-        <v>341500</v>
+        <v>1025400</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2484</t>
+          <t>2385</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D3" t="n">
-        <v>627500</v>
+        <v>409800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>365A</t>
+          <t>2484</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>699</v>
+        <v>193</v>
       </c>
       <c r="D4" t="n">
-        <v>130500</v>
+        <v>1025600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3936</t>
+          <t>2930</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="D5" t="n">
-        <v>631700</v>
+        <v>364700</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>365A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>449</v>
+        <v>689</v>
       </c>
       <c r="D6" t="n">
-        <v>307700</v>
+        <v>158600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7692</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="D7" t="n">
-        <v>136900</v>
+        <v>787700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>9519</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,16 +620,154 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>747</v>
+        <v>449</v>
       </c>
       <c r="D8" t="n">
-        <v>207000</v>
+        <v>406800</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>5940</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>767</v>
+      </c>
+      <c r="D9" t="n">
+        <v>131200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>926</v>
+      </c>
+      <c r="D10" t="n">
+        <v>246700</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>6347</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>219</v>
+      </c>
+      <c r="D11" t="n">
+        <v>426200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>7280</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>880</v>
+      </c>
+      <c r="D12" t="n">
+        <v>106300</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>118</v>
+      </c>
+      <c r="D13" t="n">
+        <v>459700</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>9519</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>742</v>
+      </c>
+      <c r="D14" t="n">
+        <v>344200</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/05/parabolic.xlsx
+++ b/parabolic/2025/08/05/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2345</t>
+          <t>157A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>222</v>
+        <v>576</v>
       </c>
       <c r="D2" t="n">
-        <v>1025400</v>
+        <v>112700</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2385</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="D3" t="n">
-        <v>409800</v>
+        <v>1187300</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2484</t>
+          <t>2385</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D4" t="n">
-        <v>1025600</v>
+        <v>472600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2930</t>
+          <t>2484</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="D5" t="n">
-        <v>364700</v>
+        <v>1946100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>365A</t>
+          <t>2930</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>689</v>
+        <v>148</v>
       </c>
       <c r="D6" t="n">
-        <v>158600</v>
+        <v>441100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3936</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>219</v>
+        <v>371</v>
       </c>
       <c r="D7" t="n">
-        <v>787700</v>
+        <v>120700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>365A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>449</v>
+        <v>681</v>
       </c>
       <c r="D8" t="n">
-        <v>406800</v>
+        <v>196000</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>767</v>
+        <v>218</v>
       </c>
       <c r="D9" t="n">
-        <v>131200</v>
+        <v>919900</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6200</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>926</v>
+        <v>386.6000061035156</v>
       </c>
       <c r="D10" t="n">
-        <v>246700</v>
+        <v>12874900</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6347</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>219</v>
+        <v>447</v>
       </c>
       <c r="D11" t="n">
-        <v>426200</v>
+        <v>517700</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>880</v>
+        <v>809</v>
       </c>
       <c r="D12" t="n">
-        <v>106300</v>
+        <v>346700</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7692</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>118</v>
+        <v>926</v>
       </c>
       <c r="D13" t="n">
-        <v>459700</v>
+        <v>126100</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>9519</t>
+          <t>6200</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,16 +758,131 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>742</v>
+        <v>920</v>
       </c>
       <c r="D14" t="n">
-        <v>344200</v>
+        <v>326500</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>6347</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>230</v>
+      </c>
+      <c r="D15" t="n">
+        <v>547400</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>6471</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>723.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1810300</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>7280</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>850</v>
+      </c>
+      <c r="D17" t="n">
+        <v>303300</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>117</v>
+      </c>
+      <c r="D18" t="n">
+        <v>691900</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>9519</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>740</v>
+      </c>
+      <c r="D19" t="n">
+        <v>419200</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/05/parabolic.xlsx
+++ b/parabolic/2025/08/05/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D2" t="n">
-        <v>112700</v>
+        <v>125300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2345</t>
+          <t>1711</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="D3" t="n">
-        <v>1187300</v>
+        <v>166800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2385</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="D4" t="n">
-        <v>472600</v>
+        <v>1295200</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2484</t>
+          <t>2385</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="D5" t="n">
-        <v>1946100</v>
+        <v>517300</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2930</t>
+          <t>2428</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>148</v>
+        <v>749</v>
       </c>
       <c r="D6" t="n">
-        <v>441100</v>
+        <v>113500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3657</t>
+          <t>2484</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>371</v>
+        <v>198</v>
       </c>
       <c r="D7" t="n">
-        <v>120700</v>
+        <v>2884500</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>365A</t>
+          <t>2930</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>681</v>
+        <v>148</v>
       </c>
       <c r="D8" t="n">
-        <v>196000</v>
+        <v>481900</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>3936</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>218</v>
+        <v>325</v>
       </c>
       <c r="D9" t="n">
-        <v>919900</v>
+        <v>155800</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>386.6000061035156</v>
+        <v>373</v>
       </c>
       <c r="D10" t="n">
-        <v>12874900</v>
+        <v>148000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>365A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>447</v>
+        <v>684</v>
       </c>
       <c r="D11" t="n">
-        <v>517700</v>
+        <v>233600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>809</v>
+        <v>220</v>
       </c>
       <c r="D12" t="n">
-        <v>346700</v>
+        <v>1100800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>926</v>
+        <v>386.1000061035156</v>
       </c>
       <c r="D13" t="n">
-        <v>126100</v>
+        <v>17686800</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6200</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>920</v>
+        <v>449</v>
       </c>
       <c r="D14" t="n">
-        <v>326500</v>
+        <v>667900</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6347</t>
+          <t>4714</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D15" t="n">
-        <v>547400</v>
+        <v>276300</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>723.5</v>
+        <v>872</v>
       </c>
       <c r="D16" t="n">
-        <v>1810300</v>
+        <v>1540900</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>850</v>
+        <v>918</v>
       </c>
       <c r="D17" t="n">
-        <v>303300</v>
+        <v>295500</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>7692</t>
+          <t>6182</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>117</v>
+        <v>647</v>
       </c>
       <c r="D18" t="n">
-        <v>691900</v>
+        <v>110000</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>9519</t>
+          <t>6200</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,16 +873,154 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>740</v>
+        <v>917</v>
       </c>
       <c r="D19" t="n">
-        <v>419200</v>
+        <v>454200</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>6347</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>225</v>
+      </c>
+      <c r="D20" t="n">
+        <v>636600</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>6471</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>725.5999755859375</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3284000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>6494</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>101</v>
+      </c>
+      <c r="D22" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>7280</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>856</v>
+      </c>
+      <c r="D23" t="n">
+        <v>351900</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>118</v>
+      </c>
+      <c r="D24" t="n">
+        <v>881100</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>9519</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>739</v>
+      </c>
+      <c r="D25" t="n">
+        <v>543500</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
